--- a/Excel/TI/Mon_TI_2024_02_14.xlsx
+++ b/Excel/TI/Mon_TI_2024_02_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,19 +642,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40.4</v>
+        <v>38.6</v>
       </c>
       <c r="F2" t="n">
-        <v>32.9</v>
+        <v>30.4</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -666,20 +666,20 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
         <v>47</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>65</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>10</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>54</v>
       </c>
-      <c r="Q2" t="n">
-        <v>26</v>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>vs</t>
@@ -692,13 +692,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>55</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -766,10 +764,10 @@
         </is>
       </c>
       <c r="AI2" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-4.9</v>
+        <v>-4.5</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -778,146 +776,144 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>38.8</v>
+        <v>37.8</v>
       </c>
       <c r="F3" t="n">
-        <v>34.4</v>
+        <v>41.7</v>
       </c>
       <c r="G3" t="n">
-        <v>30.2</v>
+        <v>36.8</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N3" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O3" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>20</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI3" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
@@ -925,32 +921,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>38.6</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>34.6</v>
+        <v>31.3</v>
       </c>
       <c r="G4" t="n">
-        <v>32.1</v>
+        <v>31.6</v>
       </c>
       <c r="H4" t="n">
         <v>13</v>
@@ -959,67 +951,63 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>40</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>65</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>37</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
         <v>27</v>
       </c>
-      <c r="N4" t="n">
-        <v>60</v>
-      </c>
-      <c r="O4" t="n">
-        <v>48</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>29</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v>10</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>@</t>
@@ -1027,37 +1015,37 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1066,70 +1054,66 @@
         </is>
       </c>
       <c r="AI4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>5</v>
-      </c>
+        <v>-0.3</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>36.6</v>
       </c>
       <c r="F5" t="n">
-        <v>31.9</v>
+        <v>36.7</v>
       </c>
       <c r="G5" t="n">
-        <v>32.6</v>
+        <v>36.3</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O5" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P5" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1138,26 +1122,24 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>14</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1176,37 +1158,37 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1215,7 +1197,7 @@
         </is>
       </c>
       <c r="AI5" t="n">
-        <v>-0.9</v>
+        <v>2.7</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -1223,101 +1205,109 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>35.8</v>
       </c>
       <c r="F6" t="n">
-        <v>31.9</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>31.6</v>
       </c>
       <c r="H6" t="n">
         <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>29</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>25</v>
       </c>
-      <c r="P6" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>33</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>43</v>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>59</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1327,68 +1317,72 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AI6" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+        <v>1.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>36.8</v>
+        <v>35.4</v>
       </c>
       <c r="F7" t="n">
-        <v>40.6</v>
+        <v>38.1</v>
       </c>
       <c r="G7" t="n">
-        <v>36.8</v>
+        <v>34.6</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1397,47 +1391,43 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O7" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>37</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>23</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1461,12 +1451,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1476,7 +1466,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1486,7 +1476,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1496,16 +1486,16 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AI7" t="n">
-        <v>3</v>
+        <v>-1.3</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1532,44 +1522,44 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36.4</v>
+        <v>35.2</v>
       </c>
       <c r="F8" t="n">
-        <v>27.4</v>
+        <v>25.6</v>
       </c>
       <c r="G8" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
         <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
         <v>22</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>41</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>32</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>72</v>
       </c>
-      <c r="Q8" t="n">
-        <v>15</v>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1582,11 +1572,13 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>16</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1654,10 +1646,10 @@
         </is>
       </c>
       <c r="AI8" t="n">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1666,25 +1658,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="E9" t="n">
-        <v>35.6</v>
+        <v>34.8</v>
       </c>
       <c r="F9" t="n">
-        <v>36.2</v>
+        <v>34.1</v>
       </c>
       <c r="G9" t="n">
         <v>33.7</v>
@@ -1693,31 +1689,31 @@
         <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P9" t="n">
         <v>39</v>
       </c>
       <c r="Q9" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1726,7 +1722,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1735,36 +1731,32 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>32</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1774,7 +1766,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1784,7 +1776,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1794,96 +1786,98 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AI9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="F10" t="n">
-        <v>38.7</v>
+        <v>31.9</v>
       </c>
       <c r="G10" t="n">
-        <v>36.6</v>
+        <v>32.7</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
+        <v>18</v>
+      </c>
+      <c r="O10" t="n">
+        <v>40</v>
+      </c>
+      <c r="P10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>74</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
         <v>58</v>
       </c>
-      <c r="O10" t="n">
-        <v>26</v>
-      </c>
-      <c r="P10" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>15</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>-</t>
@@ -1911,7 +1905,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1921,7 +1915,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1931,7 +1925,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1941,7 +1935,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -1950,7 +1944,7 @@
         </is>
       </c>
       <c r="AI10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
@@ -1958,80 +1952,78 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>34.6</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>34.3</v>
+        <v>31.6</v>
       </c>
       <c r="G11" t="n">
-        <v>30.9</v>
+        <v>32.6</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>56</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="N11" t="n">
+        <v>28</v>
+      </c>
+      <c r="O11" t="n">
+        <v>34</v>
       </c>
       <c r="P11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>21</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -2060,37 +2052,37 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2099,7 +2091,7 @@
         </is>
       </c>
       <c r="AI11" t="n">
-        <v>1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
@@ -2107,90 +2099,84 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>33.6</v>
       </c>
       <c r="F12" t="n">
-        <v>27.1</v>
+        <v>36.1</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>33.8</v>
       </c>
       <c r="H12" t="n">
         <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="O12" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P12" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>51</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2204,22 +2190,22 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2229,17 +2215,17 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2250,22 +2236,18 @@
       <c r="AI12" t="n">
         <v>1.4</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>9</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2275,22 +2257,22 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>33.2</v>
+        <v>32.2</v>
       </c>
       <c r="F13" t="n">
-        <v>33.6</v>
+        <v>24.6</v>
       </c>
       <c r="G13" t="n">
-        <v>35.6</v>
+        <v>18.2</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -2299,30 +2281,28 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="P13" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2331,17 +2311,15 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>-2</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2355,12 +2333,12 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2370,7 +2348,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2380,17 +2358,17 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2399,7 +2377,7 @@
         </is>
       </c>
       <c r="AI13" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
@@ -2407,67 +2385,71 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>33.2</v>
+        <v>31.2</v>
       </c>
       <c r="F14" t="n">
-        <v>32.3</v>
+        <v>32.9</v>
       </c>
       <c r="G14" t="n">
-        <v>34.3</v>
+        <v>30.7</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
       <c r="M14" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>28</v>
-      </c>
-      <c r="O14" t="n">
-        <v>25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2476,7 +2458,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2505,46 +2487,46 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
           <t>BKN</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AI14" t="n">
-        <v>3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
@@ -2552,17 +2534,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2571,52 +2553,52 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>30.6</v>
       </c>
       <c r="F15" t="n">
-        <v>33.5</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>33.5</v>
+        <v>25.1</v>
       </c>
       <c r="H15" t="n">
         <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
       <c r="M15" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N15" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O15" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P15" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q15" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2625,7 +2607,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2633,15 +2615,17 @@
         </is>
       </c>
       <c r="W15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Y15" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -2650,17 +2634,17 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -2670,17 +2654,17 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -2689,79 +2673,81 @@
         </is>
       </c>
       <c r="AI15" t="n">
-        <v>1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>32.4</v>
+        <v>30.4</v>
       </c>
       <c r="F16" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="G16" t="n">
-        <v>31.8</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="P16" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2770,7 +2756,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2794,22 +2780,22 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -2819,17 +2805,17 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -2838,7 +2824,7 @@
         </is>
       </c>
       <c r="AI16" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
@@ -2846,58 +2832,62 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>31.4</v>
+        <v>30.2</v>
       </c>
       <c r="F17" t="n">
-        <v>27.9</v>
+        <v>30.6</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>30.3</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2906,7 +2896,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2923,44 +2913,44 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -2970,7 +2960,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -2979,7 +2969,7 @@
         </is>
       </c>
       <c r="AI17" t="n">
-        <v>1.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
@@ -2987,78 +2977,86 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>31.2</v>
+        <v>29.4</v>
       </c>
       <c r="F18" t="n">
-        <v>33.7</v>
+        <v>26.9</v>
       </c>
       <c r="G18" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>16</v>
-      </c>
-      <c r="N18" t="n">
-        <v>38</v>
-      </c>
-      <c r="O18" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>35</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -3087,7 +3085,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3097,17 +3095,17 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3117,16 +3115,16 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AI18" t="n">
-        <v>1.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
@@ -3134,12 +3132,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3153,34 +3151,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>29.4</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5</v>
+        <v>32.9</v>
       </c>
       <c r="G19" t="n">
-        <v>31.1</v>
+        <v>25.2</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -3188,10 +3186,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -3200,67 +3198,65 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>58</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>40</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
           <t>PHX</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
-        <v>21</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
       <c r="AF19" t="inlineStr">
         <is>
           <t>@</t>
@@ -3268,7 +3264,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -3277,49 +3273,49 @@
         </is>
       </c>
       <c r="AI19" t="n">
-        <v>-2.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AK19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="F20" t="n">
-        <v>30.9</v>
+        <v>33.2</v>
       </c>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>26.6</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -3328,16 +3324,16 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N20" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="O20" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="P20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -3351,16 +3347,18 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U20" t="n">
-        <v>37</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -3389,46 +3387,46 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI20" t="n">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
@@ -3436,58 +3434,64 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>F-C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>37.3</v>
+        <v>33.1</v>
       </c>
       <c r="G21" t="n">
-        <v>34.1</v>
+        <v>30.9</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N21" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="O21" t="n">
-        <v>34</v>
-      </c>
-      <c r="P21" t="n">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -3496,7 +3500,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -3505,7 +3509,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -3534,17 +3538,17 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -3554,7 +3558,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3564,7 +3568,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -3573,104 +3577,108 @@
         </is>
       </c>
       <c r="AI21" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+        <v>-2.2</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="F22" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="G22" t="n">
-        <v>30.5</v>
+        <v>33.9</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7</v>
-      </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
+        <v>11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>51</v>
+      </c>
+      <c r="O22" t="n">
+        <v>28</v>
+      </c>
+      <c r="P22" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>28</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
         <v>35</v>
       </c>
-      <c r="N22" t="n">
-        <v>28</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>33</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
-        <v>33</v>
-      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="W22" t="n">
-        <v>39</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Y22" t="n">
-        <v>12</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -3679,37 +3687,37 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -3718,7 +3726,7 @@
         </is>
       </c>
       <c r="AI22" t="n">
-        <v>-2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
@@ -3726,117 +3734,101 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>29.4</v>
+        <v>25.8</v>
       </c>
       <c r="F23" t="n">
-        <v>26.9</v>
+        <v>29.1</v>
       </c>
       <c r="G23" t="n">
-        <v>27.1</v>
+        <v>20.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>17</v>
+      </c>
+      <c r="N23" t="n">
+        <v>30</v>
+      </c>
+      <c r="O23" t="n">
+        <v>17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>44</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>21</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>28</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3846,36 +3838,36 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI23" t="n">
-        <v>-2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
@@ -3883,12 +3875,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3898,43 +3890,43 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>25.4</v>
       </c>
       <c r="F24" t="n">
-        <v>23.8</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>18.1</v>
+        <v>37.4</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N24" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O24" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P24" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -3943,7 +3935,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3952,7 +3944,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -3976,12 +3968,12 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3991,7 +3983,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4001,7 +3993,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4020,7 +4012,7 @@
         </is>
       </c>
       <c r="AI24" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
@@ -4028,12 +4020,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4041,122 +4033,128 @@
           <t>G</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>26.6</v>
+        <v>24.8</v>
       </c>
       <c r="F25" t="n">
-        <v>30.9</v>
+        <v>23.5</v>
       </c>
       <c r="G25" t="n">
-        <v>31.2</v>
+        <v>26.9</v>
       </c>
       <c r="H25" t="n">
         <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N25" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="O25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>20</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U25" t="n">
-        <v>52</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -4165,20 +4163,24 @@
         </is>
       </c>
       <c r="AI25" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4192,45 +4194,43 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.6</v>
+        <v>23.8</v>
       </c>
       <c r="F26" t="n">
-        <v>33.1</v>
+        <v>31.2</v>
       </c>
       <c r="G26" t="n">
-        <v>25.3</v>
+        <v>35.1</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
         <v>3</v>
       </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>42</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q26" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -4239,26 +4239,24 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>49</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -4272,32 +4270,32 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4307,19 +4305,19 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AI26" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2.8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AK26" t="n">
         <v>7</v>
@@ -4328,73 +4326,69 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G-F</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>26.4</v>
+        <v>23.6</v>
       </c>
       <c r="F27" t="n">
-        <v>30.3</v>
+        <v>28.2</v>
       </c>
       <c r="G27" t="n">
-        <v>30.4</v>
+        <v>28.7</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
         <v>28</v>
       </c>
       <c r="O27" t="n">
-        <v>28</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="P27" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -4403,15 +4397,17 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="W27" t="n">
-        <v>22</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -4430,7 +4426,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4440,7 +4436,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -4450,7 +4446,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4460,7 +4456,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -4469,24 +4465,20 @@
         </is>
       </c>
       <c r="AI27" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>8</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4494,60 +4486,56 @@
           <t>G</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>25.8</v>
+        <v>23.4</v>
       </c>
       <c r="F28" t="n">
-        <v>23.3</v>
+        <v>32.7</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>35.4</v>
       </c>
       <c r="H28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
         <v>3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>27</v>
       </c>
       <c r="N28" t="n">
-        <v>42</v>
-      </c>
-      <c r="O28" t="n">
-        <v>18</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>9</v>
       </c>
       <c r="Q28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -4556,7 +4544,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -4580,32 +4568,32 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -4615,156 +4603,150 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI28" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>4</v>
-      </c>
+        <v>-0.7</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Paul George</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>22</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+      <c r="G29" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>24</v>
+      </c>
+      <c r="N29" t="n">
+        <v>43</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>19</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>41</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>15</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>De'Aaron Fox</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F29" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="G29" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>8</v>
-      </c>
-      <c r="N29" t="n">
-        <v>28</v>
-      </c>
-      <c r="O29" t="n">
-        <v>15</v>
-      </c>
-      <c r="P29" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>60</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="U29" t="n">
-        <v>45</v>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="W29" t="n">
-        <v>40</v>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Y29" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -4773,90 +4755,84 @@
         </is>
       </c>
       <c r="AI29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>7</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>24.8</v>
+        <v>21.2</v>
       </c>
       <c r="F30" t="n">
-        <v>27.7</v>
+        <v>29.4</v>
       </c>
       <c r="G30" t="n">
-        <v>28.8</v>
+        <v>30.4</v>
       </c>
       <c r="H30" t="n">
         <v>13</v>
       </c>
       <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>5</v>
       </c>
-      <c r="K30" t="n">
-        <v>7</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>30</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>40</v>
       </c>
       <c r="Q30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -4880,12 +4856,12 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4895,17 +4871,17 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -4915,16 +4891,16 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI30" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
@@ -4932,67 +4908,73 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>G-F</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="E31" t="n">
-        <v>24.4</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>31.5</v>
+        <v>26.9</v>
       </c>
       <c r="G31" t="n">
-        <v>37.8</v>
+        <v>30.1</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P31" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -5001,7 +4983,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -5009,76 +4991,80 @@
         </is>
       </c>
       <c r="W31" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+        <v>2.1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5088,52 +5074,54 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>23.6</v>
+        <v>20.6</v>
       </c>
       <c r="F32" t="n">
-        <v>28.5</v>
+        <v>20.7</v>
       </c>
       <c r="G32" t="n">
-        <v>31.4</v>
+        <v>17</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>2</v>
-      </c>
       <c r="M32" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P32" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -5142,7 +5130,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -5171,17 +5159,17 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -5191,7 +5179,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -5201,7 +5189,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -5210,7 +5198,7 @@
         </is>
       </c>
       <c r="AI32" t="n">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
@@ -5218,35 +5206,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="G33" t="n">
-        <v>28.9</v>
+        <v>22.9</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
         <v>7</v>
@@ -5255,45 +5239,45 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>16</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P33" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q33" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>21</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -5317,12 +5301,12 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5332,178 +5316,176 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AI33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>5</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>20.6</v>
+        <v>17.6</v>
       </c>
       <c r="F34" t="n">
-        <v>21.3</v>
+        <v>24.2</v>
       </c>
       <c r="G34" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>15</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>37</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
         <v>23</v>
       </c>
-      <c r="H34" t="n">
-        <v>12</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>41</v>
-      </c>
-      <c r="O34" t="n">
-        <v>18</v>
-      </c>
-      <c r="P34" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>18</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>17</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Y34" t="n">
+        <v>27</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -5512,7 +5494,7 @@
         </is>
       </c>
       <c r="AI34" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
@@ -5520,100 +5502,92 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>18.4</v>
+        <v>10.8</v>
       </c>
       <c r="F35" t="n">
-        <v>19.2</v>
+        <v>20.3</v>
       </c>
       <c r="G35" t="n">
-        <v>16.8</v>
+        <v>19.8</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O35" t="n">
-        <v>39</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>21</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>15</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>16</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>27</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -5622,345 +5596,49 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="AH35" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AI35" t="n">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fred VanVleet</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>19</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>37</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AI36" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>17</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="G37" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="H37" t="n">
-        <v>13</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>18</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4</v>
-      </c>
-      <c r="O37" t="n">
-        <v>21</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>43</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>35</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AI37" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
